--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2704.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2704.xlsx
@@ -354,7 +354,7 @@
         <v>2.412248728169105</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.341896052465219</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2704.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2704.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165890862738375</v>
+        <v>0.6607595682144165</v>
       </c>
       <c r="B1">
-        <v>2.412248728169105</v>
+        <v>1.01718008518219</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.324509382247925</v>
       </c>
       <c r="D1">
-        <v>2.341896052465219</v>
+        <v>3.929444313049316</v>
       </c>
       <c r="E1">
-        <v>1.216757199631828</v>
+        <v>1.567742109298706</v>
       </c>
     </row>
   </sheetData>
